--- a/src/com/main/请假出差/leave20201019-20201023.xlsx
+++ b/src/com/main/请假出差/leave20201019-20201023.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wj\Desktop\Sign\src\com\main\请假出差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F42D23F-8CA7-4881-A9C4-46AEDBCD7F6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF3A1E3-CDE5-47BD-9D8E-A1E7EC4B36BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,18 +43,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>杨巧青，牛玉莹，邢晶晶，龙腾，刘慧超，李禹，阮俊，李胜勇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>栗洪涛，李汶龙，陈玉娇，陈聪聪，高稳，肖毅，李其超，王勤，李晓凯，张鑫月，李馨月，孔令斌，彭娅，黄政</t>
-  </si>
-  <si>
-    <t>赵勐，师丽彪，陈桥，李家谨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张鑫月，陈玉娇</t>
+    <t>赵勐，师丽彪，陈桥，李家谨，栗洪涛，邢晶晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栗洪涛，李汶龙，陈玉娇，陈聪聪，高稳，肖毅，李其超，王勤，刘晓晨，纪晴，李馨月，孔令斌，彭娅，黄政</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨巧青，牛玉莹，邢晶晶，龙腾，刘慧超，李禹，阮俊，李胜勇，钟元芾，陈聪聪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张鑫月，陈玉娇，钟元芾，徐利智，邢晶晶，杨巧青，徐磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘东旭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -97,13 +103,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -387,14 +396,14 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.796875" customWidth="1"/>
-    <col min="3" max="3" width="77.796875" customWidth="1"/>
+    <col min="2" max="2" width="24.53125" customWidth="1"/>
+    <col min="3" max="3" width="51.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
@@ -409,47 +418,49 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>44123</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>44125</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>44126</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="3">
-        <v>44124</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="3">
-        <v>44125</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="3">
-        <v>44126</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>44127</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
